--- a/Dataset/Traffic Collisions data features - evaluated.xlsx
+++ b/Dataset/Traffic Collisions data features - evaluated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpggpc-my.sharepoint.com/personal/bardhonia_harding_innovapost_com/Documents/Documents/Analytics/module 20/Crash-Detectives/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{38120E91-D418-47D2-BF3D-58248112D8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{330599A4-7DBD-4245-A3B5-258FD6F71747}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{38120E91-D418-47D2-BF3D-58248112D8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDBA3023-347A-487B-A296-1E84174408F7}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1680" windowWidth="8580" windowHeight="13245" xr2:uid="{2E1FFFC6-5232-43AF-BEE2-0F27B4261FAC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E1FFFC6-5232-43AF-BEE2-0F27B4261FAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Traffic Collisions data feature" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Column</t>
   </si>
@@ -553,7 +553,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,9 +585,7 @@
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/Dataset/Traffic Collisions data features - evaluated.xlsx
+++ b/Dataset/Traffic Collisions data features - evaluated.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpggpc-my.sharepoint.com/personal/bardhonia_harding_innovapost_com/Documents/Documents/Analytics/module 20/Crash-Detectives/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{38120E91-D418-47D2-BF3D-58248112D8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDBA3023-347A-487B-A296-1E84174408F7}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{38120E91-D418-47D2-BF3D-58248112D8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13989F1B-068B-45F6-880C-787FD64D83CD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E1FFFC6-5232-43AF-BEE2-0F27B4261FAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Traffic Collisions data feature" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Column</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Need to split this string to extract Lat/Long example, {"type": "Point", "coordinates": [-79.40215463, 43.72510266]}</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -236,6 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,7 +557,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +589,9 @@
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,10 +674,12 @@
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -692,10 +700,12 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
